--- a/public/upload/student_list_each_semester/5/D17_TH10.xlsx
+++ b/public/upload/student_list_each_semester/5/D17_TH10.xlsx
@@ -584,7 +584,7 @@
     <t>Năm học: 2018 - 2019</t>
   </si>
   <si>
-    <t>DH51703DDD</t>
+    <t>DH51703229</t>
   </si>
 </sst>
 </file>
@@ -865,6 +865,54 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,54 +923,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,46 +1220,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
@@ -1270,51 +1270,51 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5" spans="1:15" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -1324,18 +1324,18 @@
       <c r="A6" s="18"/>
       <c r="B6" s="20"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -1359,52 +1359,52 @@
       <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="33" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="28" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="28" t="s">
+      <c r="O8" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="35"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="22" t="s">
         <v>18</v>
       </c>
@@ -1414,13 +1414,13 @@
       <c r="H9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
     </row>
     <row r="10" spans="1:15" s="13" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
@@ -1429,10 +1429,10 @@
       <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="23" t="s">
         <v>24</v>
       </c>
@@ -2593,18 +2593,18 @@
     </row>
     <row r="53" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="26"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
       <c r="J53" s="1"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -2616,18 +2616,18 @@
     </row>
     <row r="54" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="26"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
       <c r="J54" s="1"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -2879,17 +2879,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:I54"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:K5"/>
@@ -2901,11 +2895,17 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
